--- a/records/Crop rotation.xlsx
+++ b/records/Crop rotation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Site</t>
   </si>
@@ -184,11 +184,20 @@
       <t>Jun '13</t>
     </r>
   </si>
+  <si>
+    <t>2016 Apr</t>
+  </si>
+  <si>
+    <t>spring wheat</t>
+  </si>
+  <si>
+    <t>Keith (field manager?) on 2016-04-20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\ mmm"/>
   </numFmts>
@@ -584,10 +593,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +877,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="11">
         <v>2012</v>
       </c>
@@ -881,7 +890,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="11">
         <v>2013</v>
       </c>
@@ -897,7 +906,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="11">
         <v>2014</v>
       </c>
@@ -910,7 +919,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="11">
         <v>2015</v>
       </c>
@@ -928,20 +937,27 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B25" s="10">
         <v>2012</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15">
-        <v>2013</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -949,25 +965,34 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
-      <c r="B26" s="10">
-        <v>2014</v>
+      <c r="B26" s="15">
+        <v>2013</v>
       </c>
       <c r="C26" s="16"/>
-      <c r="D26" s="6">
-        <v>42186</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="6">
+        <v>42186</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="10">
         <v>2015</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -976,8 +1001,8 @@
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A19:A24"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Crop rotation.xlsx
+++ b/records/Crop rotation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Site</t>
   </si>
@@ -31,18 +31,6 @@
     <t>Harvested</t>
   </si>
   <si>
-    <t>garbanzo</t>
-  </si>
-  <si>
-    <t>wheat, ????</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>canola</t>
-  </si>
-  <si>
     <t>"Crop year"</t>
   </si>
   <si>
@@ -50,54 +38,6 @@
   </si>
   <si>
     <t>chem fallow</t>
-  </si>
-  <si>
-    <t>spring barley</t>
-  </si>
-  <si>
-    <t>club wheat</t>
-  </si>
-  <si>
-    <t>winter wheat</t>
-  </si>
-  <si>
-    <t>2015 Aug</t>
-  </si>
-  <si>
-    <t>logbook note 2013-05-01</t>
-  </si>
-  <si>
-    <t>email, logbook 2012-10-04</t>
-  </si>
-  <si>
-    <t>2014 Aug</t>
-  </si>
-  <si>
-    <t>2015 Jul</t>
-  </si>
-  <si>
-    <t>logbook note 2015-03-27</t>
-  </si>
-  <si>
-    <t>peas</t>
-  </si>
-  <si>
-    <t>email from SRW, 2015-08-21</t>
-  </si>
-  <si>
-    <t>2013 May</t>
-  </si>
-  <si>
-    <t>2013 Sep</t>
-  </si>
-  <si>
-    <t>inferred logbook notes 2013-10-04, 2014-08-02</t>
-  </si>
-  <si>
-    <t>inferred logbook notes 2015-04-22, 2015-08-10</t>
-  </si>
-  <si>
-    <t>Source</t>
   </si>
   <si>
     <r>
@@ -185,23 +125,314 @@
     </r>
   </si>
   <si>
-    <t>2016 Apr</t>
-  </si>
-  <si>
-    <t>spring wheat</t>
-  </si>
-  <si>
-    <t>Keith (field manager?) on 2016-04-20</t>
+    <r>
+      <t>winter wheat (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Triticum aestivum ssp. compactum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>garbanzo bean (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cicer arietinum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>winter wheat (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Triticum aestivum L.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>canola (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>winter wheat (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2011-09-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>??</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>winter wheat (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Triticum aestivum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>club wheat (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) or winter wheat (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Triticum aestivum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t>spring barley (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>peas (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>probably winter wheat [dates estimated]</t>
+  </si>
+  <si>
+    <t>green manure: mustard &amp; arugula</t>
+  </si>
+  <si>
+    <t>potato (?)</t>
+  </si>
+  <si>
+    <t>probably spring wheat (?)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">spring wheat (?) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[date uncertain]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\ mmm"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +452,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -258,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -268,15 +506,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,13 +520,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -309,6 +534,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,416 +859,444 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="10">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="20">
+        <v>41169</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="7">
+        <v>2013</v>
+      </c>
+      <c r="C3" s="21">
+        <v>41395</v>
+      </c>
+      <c r="D3" s="21">
+        <v>41532</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="20">
+        <v>41552</v>
+      </c>
+      <c r="D4" s="20">
+        <v>41857</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C5" s="20">
+        <v>42102</v>
+      </c>
+      <c r="D5" s="21">
+        <v>42228</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="7">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="20">
+        <v>42292</v>
+      </c>
+      <c r="D6" s="21">
+        <v>42590</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8">
         <v>2011</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="15">
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="8">
         <v>2012</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="10">
+      <c r="C8" s="23">
+        <v>40838</v>
+      </c>
+      <c r="D8" s="23">
+        <v>41143</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="8">
         <v>2013</v>
       </c>
-      <c r="C4" s="6">
-        <v>41395</v>
-      </c>
-      <c r="D4" s="6">
-        <v>41518</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="10">
-        <v>2014</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="10">
-        <v>2015</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="6">
-        <v>42217</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2010</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="7">
-        <v>40787</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="11">
-        <v>2012</v>
-      </c>
-      <c r="C9" s="7">
-        <v>40817</v>
-      </c>
-      <c r="D9" s="7">
-        <v>41122</v>
+      <c r="C9" s="23">
+        <v>41396</v>
+      </c>
+      <c r="D9" s="23">
+        <v>41532</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="8">
+        <v>2014</v>
+      </c>
+      <c r="C10" s="23">
+        <v>41557</v>
+      </c>
+      <c r="D10" s="23">
+        <v>41858</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C11" s="23">
+        <v>42112</v>
+      </c>
+      <c r="D11" s="23">
+        <v>42293</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C12" s="23">
+        <v>42293</v>
+      </c>
+      <c r="D12" s="23">
+        <v>42599</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="7">
+        <v>2013</v>
+      </c>
+      <c r="C14" s="20">
+        <v>41150</v>
+      </c>
+      <c r="D14" s="20">
+        <v>41487</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="20">
+        <v>41877</v>
+      </c>
+      <c r="D16" s="20">
+        <v>42195</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="7">
+        <v>2016</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="23">
+        <v>41133</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C20" s="23">
+        <v>41396</v>
+      </c>
+      <c r="D20" s="23">
+        <v>41506</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="11">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="8">
+        <v>2014</v>
+      </c>
+      <c r="C21" s="23">
+        <v>41761</v>
+      </c>
+      <c r="D21" s="23">
+        <v>41856</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C22" s="23">
+        <v>41911</v>
+      </c>
+      <c r="D22" s="26">
+        <v>42219</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C23" s="28">
+        <v>42277</v>
+      </c>
+      <c r="D23" s="28">
+        <v>42612</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="30">
         <v>2013</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="11">
+      <c r="C24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="24">
+        <v>41495</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="24">
+        <v>41497</v>
+      </c>
+      <c r="D25" s="24">
+        <v>41564</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="7">
         <v>2014</v>
       </c>
-      <c r="C11" s="7">
-        <v>41548</v>
-      </c>
-      <c r="D11" s="7">
-        <v>41852</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="11">
+      <c r="C26" s="24">
+        <v>41739</v>
+      </c>
+      <c r="D26" s="24">
+        <v>41915</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="7">
         <v>2015</v>
       </c>
-      <c r="C12" s="7">
-        <v>42095</v>
-      </c>
-      <c r="D12" s="7">
-        <v>42217</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2010</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="15">
-        <v>2011</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="10">
-        <v>2012</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="10">
-        <v>2013</v>
-      </c>
-      <c r="C16" s="6">
-        <v>41122</v>
-      </c>
-      <c r="D16" s="6">
-        <v>41456</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="10">
-        <v>2014</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="10">
-        <v>2015</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="11">
-        <v>2012</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="7">
-        <v>41122</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="11">
-        <v>2013</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="7">
-        <v>41487</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="11">
-        <v>2014</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="7">
-        <v>41852</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="10">
-        <v>2012</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="15">
-        <v>2013</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="10">
-        <v>2014</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="6">
-        <v>42186</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="10">
-        <v>2015</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
-        <v>5</v>
+      <c r="C27" s="24">
+        <v>41932</v>
+      </c>
+      <c r="D27" s="32">
+        <v>42233</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A18:A23"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
